--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -454,7 +454,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -526,7 +526,7 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -558,7 +558,7 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -606,7 +606,7 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -630,7 +630,7 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -670,7 +670,7 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -718,7 +718,7 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -734,7 +734,7 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -758,7 +758,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -822,7 +822,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
@@ -838,7 +838,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -902,7 +902,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -1086,7 +1086,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
@@ -1150,7 +1150,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
@@ -1166,7 +1166,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -1174,7 +1174,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -454,7 +454,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -478,7 +478,7 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -526,7 +526,7 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -558,7 +558,7 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -582,7 +582,7 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -614,7 +614,7 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -718,7 +718,7 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -734,7 +734,7 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -758,7 +758,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -798,7 +798,7 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -982,7 +982,7 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
@@ -1046,7 +1046,7 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -1094,7 +1094,7 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
@@ -1174,7 +1174,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98">
@@ -1230,7 +1230,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110">
@@ -1326,7 +1326,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112">
@@ -1358,7 +1358,7 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119">

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -526,7 +526,7 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -558,7 +558,7 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -582,7 +582,7 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -598,7 +598,7 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -638,7 +638,7 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -718,7 +718,7 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -758,7 +758,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -838,7 +838,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
@@ -1070,7 +1070,7 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -1078,7 +1078,7 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107">
@@ -1318,7 +1318,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111">
@@ -1342,7 +1342,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -478,7 +478,7 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -558,7 +558,7 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -646,7 +646,7 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -662,7 +662,7 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -686,7 +686,7 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -718,7 +718,7 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
@@ -742,7 +742,7 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -758,7 +758,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -782,7 +782,7 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -806,7 +806,7 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -886,7 +886,7 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61">
@@ -934,7 +934,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
@@ -982,7 +982,7 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
@@ -998,7 +998,7 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
@@ -1062,7 +1062,7 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -1078,7 +1078,7 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -1086,7 +1086,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
@@ -1150,7 +1150,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
@@ -1166,7 +1166,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119">

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -478,7 +478,7 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -558,7 +558,7 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -574,7 +574,7 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -598,7 +598,7 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -638,7 +638,7 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -662,7 +662,7 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -686,7 +686,7 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -782,7 +782,7 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -830,7 +830,7 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -902,7 +902,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61">
@@ -934,7 +934,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -982,7 +982,7 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
@@ -1062,7 +1062,7 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
@@ -1158,7 +1158,7 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
@@ -1166,7 +1166,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -1174,7 +1174,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -1,40 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarsandberg/Documents/Programmering/flossan/Scraper/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F6EE77-AF2E-1C43-B804-437146E2545E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Rugvista</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +67,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,972 +392,967 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73:C127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Rugvista</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>42400</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>42429</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>42460</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>42490</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>42521</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>42551</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>42582</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>42613</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>42643</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>13</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>42674</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>18</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>42704</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>16</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>42735</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>42766</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>16</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>42794</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>16</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>42825</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>42855</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>14</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>42886</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>12</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>42916</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>11</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>42947</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>15</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>42978</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>17</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>43008</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>16</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>43039</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>43069</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>43100</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>17</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>43131</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>22</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>43159</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>20</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>43190</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>16</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>43220</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>13</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>43251</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>12</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>43281</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>12</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>43312</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>14</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>43343</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>18</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>43373</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>21</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>43404</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>20</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>43434</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>23</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>43465</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>18</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>43496</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>24</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>43524</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>22</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>43555</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>18</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>43585</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>19</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>43616</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>17</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>43646</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>15</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>43677</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>16</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>43708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>21</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>43738</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>22</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>43769</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>25</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>43799</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>35</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>43830</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>23</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>43861</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>29</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>43890</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>27</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>43921</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>21</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>43951</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>26</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>43982</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>30</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>44012</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>25</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>44043</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>25</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>44074</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>27</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>44104</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>33</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>44135</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>43</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>44165</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>47</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>44196</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>38</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>44227</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>52</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>44255</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>39</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>44286</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>41</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>44316</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>33</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>44347</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>29</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>44377</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>21</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>44408</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>24</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>44439</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>29</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>44469</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>28</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
         <v>44500</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>35</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>44530</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>43</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
         <v>44561</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>28</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>44592</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>47</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
         <v>44620</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>37</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
         <v>44651</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>35</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
         <v>44681</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>29</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
         <v>44712</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>26</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
         <v>44742</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>21</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
         <v>44773</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>22</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
         <v>44804</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>22</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
         <v>44834</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>28</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
         <v>44865</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>32</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
         <v>44895</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>39</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
         <v>44926</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>32</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
         <v>44957</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>40</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
         <v>44985</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>41</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
         <v>45016</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>35</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
         <v>45046</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>31</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
         <v>45077</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>28</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
         <v>45107</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>25</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
         <v>45138</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>31</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
         <v>45169</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>37</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
         <v>45199</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>39</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
         <v>45230</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>53</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
         <v>45260</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>67</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
         <v>45291</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>48</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
         <v>45322</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>55</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
         <v>45351</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>50</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
         <v>45382</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>46</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
         <v>45412</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>39</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
         <v>45443</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>34</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
         <v>45473</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>36</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
         <v>45504</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>36</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
         <v>45535</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>45</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
         <v>45565</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>54</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
         <v>45596</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>73</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
         <v>45626</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>100</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
         <v>45657</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>70</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
         <v>45688</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>80</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
         <v>45716</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>72</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
         <v>45747</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>70</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
         <v>45777</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>59</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
         <v>45808</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>55</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
         <v>45838</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>44</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
         <v>45869</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>52</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
         <v>45900</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>68</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
         <v>45930</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>69</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
         <v>45961</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>79</v>
       </c>
     </row>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -454,7 +454,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +470,7 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -494,7 +494,7 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,7 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -534,7 +534,7 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -614,7 +614,7 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -702,7 +702,7 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -758,7 +758,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -798,7 +798,7 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
@@ -814,7 +814,7 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -830,7 +830,7 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -886,7 +886,7 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61">
@@ -934,7 +934,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
@@ -974,7 +974,7 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -1006,7 +1006,7 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75">
@@ -1054,7 +1054,7 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -1086,7 +1086,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89">
@@ -1150,7 +1150,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -1166,7 +1166,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94">
@@ -1198,7 +1198,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97">
@@ -1222,7 +1222,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115">
@@ -1366,7 +1366,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -454,7 +454,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +470,7 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -518,7 +518,7 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -574,7 +574,7 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -598,7 +598,7 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -654,7 +654,7 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -702,7 +702,7 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -726,7 +726,7 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -758,7 +758,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -798,7 +798,7 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -838,7 +838,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -886,7 +886,7 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -902,7 +902,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
@@ -1150,7 +1150,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -1174,7 +1174,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
@@ -1198,7 +1198,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110">
@@ -1342,7 +1342,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119">

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -454,7 +454,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -574,7 +574,7 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -606,7 +606,7 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -662,7 +662,7 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -710,7 +710,7 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -750,7 +750,7 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -766,7 +766,7 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -814,7 +814,7 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -830,7 +830,7 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -862,7 +862,7 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -878,7 +878,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -918,7 +918,7 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -974,7 +974,7 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
@@ -1054,7 +1054,7 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
@@ -1086,7 +1086,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
@@ -1158,7 +1158,7 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
@@ -1166,7 +1166,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108">
@@ -1318,7 +1318,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113">
@@ -1350,7 +1350,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115">
@@ -1366,7 +1366,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -454,7 +454,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -598,7 +598,7 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -654,7 +654,7 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -702,7 +702,7 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -758,7 +758,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -782,7 +782,7 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -806,7 +806,7 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -854,7 +854,7 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -974,7 +974,7 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76">
@@ -1054,7 +1054,7 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -1086,7 +1086,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
@@ -1158,7 +1158,7 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
@@ -1166,7 +1166,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
@@ -1174,7 +1174,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94">
@@ -1198,7 +1198,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97">
@@ -1222,7 +1222,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
@@ -1350,7 +1350,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -470,7 +470,7 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -598,7 +598,7 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -646,7 +646,7 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -702,7 +702,7 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -758,7 +758,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -798,7 +798,7 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
@@ -1054,7 +1054,7 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -1078,7 +1078,7 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81">
@@ -1086,7 +1086,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
@@ -1150,7 +1150,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
@@ -1166,7 +1166,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -1174,7 +1174,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -470,7 +470,7 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -518,7 +518,7 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -598,7 +598,7 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -646,7 +646,7 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +670,7 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -702,7 +702,7 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -734,7 +734,7 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -766,7 +766,7 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
@@ -798,7 +798,7 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -814,7 +814,7 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
@@ -862,7 +862,7 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -894,7 +894,7 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
@@ -1054,7 +1054,7 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -1078,7 +1078,7 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
@@ -1094,7 +1094,7 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
@@ -1150,7 +1150,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
@@ -1166,7 +1166,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
@@ -1174,7 +1174,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -454,7 +454,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +550,7 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -606,7 +606,7 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -646,7 +646,7 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -694,7 +694,7 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -726,7 +726,7 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -742,7 +742,7 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -782,7 +782,7 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -806,7 +806,7 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -838,7 +838,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -854,7 +854,7 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
@@ -934,7 +934,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
@@ -982,7 +982,7 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -1006,7 +1006,7 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76">
@@ -1086,7 +1086,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89">
@@ -1150,7 +1150,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98">
@@ -1230,7 +1230,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115">
@@ -1366,7 +1366,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -454,7 +454,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>42521</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
@@ -1078,7 +1078,7 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
@@ -1086,7 +1086,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -1150,7 +1150,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
@@ -1166,7 +1166,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
@@ -1174,7 +1174,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -454,7 +454,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>42521</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -1078,7 +1078,7 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
@@ -1086,7 +1086,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
@@ -1150,7 +1150,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
@@ -1166,7 +1166,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
@@ -1174,7 +1174,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -454,7 +454,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -694,7 +694,7 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -726,7 +726,7 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -790,7 +790,7 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -806,7 +806,7 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -822,7 +822,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
@@ -846,7 +846,7 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
@@ -1150,7 +1150,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -1174,7 +1174,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97">
@@ -1230,7 +1230,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101">
@@ -1254,7 +1254,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113">
@@ -1366,7 +1366,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -454,7 +454,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -654,7 +654,7 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -694,7 +694,7 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -790,7 +790,7 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -830,7 +830,7 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -846,7 +846,7 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
@@ -878,7 +878,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -894,7 +894,7 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87">
@@ -1150,7 +1150,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
@@ -1166,7 +1166,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -1174,7 +1174,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
@@ -1390,7 +1390,7 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/rugvista_trends_monthly.xlsx
+++ b/data/rugvista_trends_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
         <v>42400</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>42429</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>42460</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>42490</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>42521</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>42551</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>42582</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>42613</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>42643</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>42674</v>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>42704</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>42735</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>42766</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>42794</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>42825</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>42855</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>42886</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>42916</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>42947</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>42978</v>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>43008</v>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>43039</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>43069</v>
       </c>
       <c r="B24" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>43100</v>
       </c>
       <c r="B25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>43131</v>
       </c>
       <c r="B26" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>43159</v>
       </c>
       <c r="B27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>43190</v>
       </c>
       <c r="B28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>43220</v>
       </c>
       <c r="B29" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>43251</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>43281</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>43312</v>
       </c>
       <c r="B32" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>43343</v>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>43373</v>
       </c>
       <c r="B34" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>43404</v>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>43434</v>
       </c>
       <c r="B36" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>43465</v>
       </c>
       <c r="B37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>43496</v>
       </c>
       <c r="B38" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>43524</v>
       </c>
       <c r="B39" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>43555</v>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>43585</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>43616</v>
       </c>
       <c r="B42" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>43646</v>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>43677</v>
       </c>
       <c r="B44" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>43708</v>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>43738</v>
       </c>
       <c r="B46" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>43769</v>
       </c>
       <c r="B47" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>43799</v>
       </c>
       <c r="B48" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>43830</v>
       </c>
       <c r="B49" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -838,7 +838,7 @@
         <v>43861</v>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -846,7 +846,7 @@
         <v>43890</v>
       </c>
       <c r="B51" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
@@ -854,7 +854,7 @@
         <v>43921</v>
       </c>
       <c r="B52" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -862,7 +862,7 @@
         <v>43951</v>
       </c>
       <c r="B53" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
@@ -870,7 +870,7 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
@@ -878,7 +878,7 @@
         <v>44012</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
@@ -886,7 +886,7 @@
         <v>44043</v>
       </c>
       <c r="B56" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
@@ -894,7 +894,7 @@
         <v>44074</v>
       </c>
       <c r="B57" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -902,7 +902,7 @@
         <v>44104</v>
       </c>
       <c r="B58" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
@@ -910,7 +910,7 @@
         <v>44135</v>
       </c>
       <c r="B59" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
@@ -918,7 +918,7 @@
         <v>44165</v>
       </c>
       <c r="B60" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
@@ -926,7 +926,7 @@
         <v>44196</v>
       </c>
       <c r="B61" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -934,7 +934,7 @@
         <v>44227</v>
       </c>
       <c r="B62" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63">
@@ -942,7 +942,7 @@
         <v>44255</v>
       </c>
       <c r="B63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -950,7 +950,7 @@
         <v>44286</v>
       </c>
       <c r="B64" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
@@ -958,7 +958,7 @@
         <v>44316</v>
       </c>
       <c r="B65" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
@@ -966,7 +966,7 @@
         <v>44347</v>
       </c>
       <c r="B66" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
@@ -974,7 +974,7 @@
         <v>44377</v>
       </c>
       <c r="B67" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
@@ -982,7 +982,7 @@
         <v>44408</v>
       </c>
       <c r="B68" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -990,7 +990,7 @@
         <v>44439</v>
       </c>
       <c r="B69" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
@@ -998,7 +998,7 @@
         <v>44469</v>
       </c>
       <c r="B70" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
@@ -1006,7 +1006,7 @@
         <v>44500</v>
       </c>
       <c r="B71" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -1014,7 +1014,7 @@
         <v>44530</v>
       </c>
       <c r="B72" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73">
@@ -1022,7 +1022,7 @@
         <v>44561</v>
       </c>
       <c r="B73" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74">
@@ -1030,7 +1030,7 @@
         <v>44592</v>
       </c>
       <c r="B74" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75">
@@ -1038,7 +1038,7 @@
         <v>44620</v>
       </c>
       <c r="B75" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76">
@@ -1046,7 +1046,7 @@
         <v>44651</v>
       </c>
       <c r="B76" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
@@ -1054,7 +1054,7 @@
         <v>44681</v>
       </c>
       <c r="B77" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
@@ -1062,7 +1062,7 @@
         <v>44712</v>
       </c>
       <c r="B78" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
@@ -1070,7 +1070,7 @@
         <v>44742</v>
       </c>
       <c r="B79" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -1078,7 +1078,7 @@
         <v>44773</v>
       </c>
       <c r="B80" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -1086,7 +1086,7 @@
         <v>44804</v>
       </c>
       <c r="B81" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
@@ -1094,7 +1094,7 @@
         <v>44834</v>
       </c>
       <c r="B82" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83">
@@ -1102,7 +1102,7 @@
         <v>44865</v>
       </c>
       <c r="B83" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84">
@@ -1110,7 +1110,7 @@
         <v>44895</v>
       </c>
       <c r="B84" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -1118,7 +1118,7 @@
         <v>44926</v>
       </c>
       <c r="B85" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
@@ -1126,7 +1126,7 @@
         <v>44957</v>
       </c>
       <c r="B86" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
@@ -1134,7 +1134,7 @@
         <v>44985</v>
       </c>
       <c r="B87" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
@@ -1142,7 +1142,7 @@
         <v>45016</v>
       </c>
       <c r="B88" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
@@ -1150,7 +1150,7 @@
         <v>45046</v>
       </c>
       <c r="B89" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90">
@@ -1158,7 +1158,7 @@
         <v>45077</v>
       </c>
       <c r="B90" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
@@ -1166,7 +1166,7 @@
         <v>45107</v>
       </c>
       <c r="B91" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -1174,7 +1174,7 @@
         <v>45138</v>
       </c>
       <c r="B92" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
@@ -1182,7 +1182,7 @@
         <v>45169</v>
       </c>
       <c r="B93" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -1190,7 +1190,7 @@
         <v>45199</v>
       </c>
       <c r="B94" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -1198,7 +1198,7 @@
         <v>45230</v>
       </c>
       <c r="B95" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96">
@@ -1206,7 +1206,7 @@
         <v>45260</v>
       </c>
       <c r="B96" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97">
@@ -1214,7 +1214,7 @@
         <v>45291</v>
       </c>
       <c r="B97" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98">
@@ -1222,7 +1222,7 @@
         <v>45322</v>
       </c>
       <c r="B98" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99">
@@ -1230,7 +1230,7 @@
         <v>45351</v>
       </c>
       <c r="B99" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100">
@@ -1238,7 +1238,7 @@
         <v>45382</v>
       </c>
       <c r="B100" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101">
@@ -1246,7 +1246,7 @@
         <v>45412</v>
       </c>
       <c r="B101" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
@@ -1254,7 +1254,7 @@
         <v>45443</v>
       </c>
       <c r="B102" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
@@ -1262,7 +1262,7 @@
         <v>45473</v>
       </c>
       <c r="B103" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -1270,7 +1270,7 @@
         <v>45504</v>
       </c>
       <c r="B104" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -1278,7 +1278,7 @@
         <v>45535</v>
       </c>
       <c r="B105" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106">
@@ -1286,7 +1286,7 @@
         <v>45565</v>
       </c>
       <c r="B106" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107">
@@ -1294,7 +1294,7 @@
         <v>45596</v>
       </c>
       <c r="B107" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108">
@@ -1302,7 +1302,7 @@
         <v>45626</v>
       </c>
       <c r="B108" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109">
@@ -1310,7 +1310,7 @@
         <v>45657</v>
       </c>
       <c r="B109" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110">
@@ -1318,7 +1318,7 @@
         <v>45688</v>
       </c>
       <c r="B110" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111">
@@ -1326,7 +1326,7 @@
         <v>45716</v>
       </c>
       <c r="B111" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112">
@@ -1334,7 +1334,7 @@
         <v>45747</v>
       </c>
       <c r="B112" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113">
@@ -1342,7 +1342,7 @@
         <v>45777</v>
       </c>
       <c r="B113" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114">
@@ -1350,7 +1350,7 @@
         <v>45808</v>
       </c>
       <c r="B114" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115">
@@ -1358,7 +1358,7 @@
         <v>45838</v>
       </c>
       <c r="B115" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116">
@@ -1366,7 +1366,7 @@
         <v>45869</v>
       </c>
       <c r="B116" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117">
@@ -1374,7 +1374,7 @@
         <v>45900</v>
       </c>
       <c r="B117" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118">
@@ -1382,7 +1382,7 @@
         <v>45930</v>
       </c>
       <c r="B118" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119">
@@ -1390,7 +1390,31 @@
         <v>45961</v>
       </c>
       <c r="B119" t="n">
-        <v>86</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B120" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B121" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>46053</v>
+      </c>
+      <c r="B122" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
